--- a/RESULTS_IEEE14_ClassifiersTest.xlsx
+++ b/RESULTS_IEEE14_ClassifiersTest.xlsx
@@ -1,43 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jacob\DL_FDI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
-    <sheet name="Training Time" sheetId="2" r:id="rId2"/>
+    <sheet name="DCT" sheetId="1" r:id="rId1"/>
+    <sheet name="GNB" sheetId="2" r:id="rId2"/>
+    <sheet name="KNN" sheetId="3" r:id="rId3"/>
+    <sheet name="SVM_L" sheetId="4" r:id="rId4"/>
+    <sheet name="SVM-R" sheetId="5" r:id="rId5"/>
+    <sheet name="Training Time" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Sparsity</t>
   </si>
   <si>
-    <t>Decision Tree</t>
+    <t>Accuracy</t>
   </si>
   <si>
-    <t>Naive Bayesian</t>
+    <t>F1 score</t>
   </si>
   <si>
-    <t>KNN</t>
+    <t>Precision</t>
   </si>
   <si>
-    <t>SVM-L</t>
+    <t>Recall</t>
   </si>
   <si>
-    <t>SVM-R</t>
+    <t>False Positive Rate</t>
   </si>
   <si>
     <t>Model</t>
@@ -49,14 +48,23 @@
     <t>DCT</t>
   </si>
   <si>
+    <t>KNN</t>
+  </si>
+  <si>
     <t>NB</t>
+  </si>
+  <si>
+    <t>SVM-L</t>
+  </si>
+  <si>
+    <t>SVM-R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,14 +127,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -173,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,10 +205,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,7 +239,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,22 +414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -459,22 +449,22 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.69084542271135563</v>
+        <v>0.6895</v>
       </c>
       <c r="D2">
-        <v>0.77838919459729861</v>
+        <v>0.7548361626529806</v>
       </c>
       <c r="E2">
-        <v>0.55427713856928462</v>
+        <v>0.6236138290932811</v>
       </c>
       <c r="F2">
-        <v>0.66583291645822906</v>
+        <v>0.956</v>
       </c>
       <c r="G2">
-        <v>0.72986493246623307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,22 +472,22 @@
         <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0.82391195597798894</v>
+        <v>0.8395</v>
       </c>
       <c r="D3">
-        <v>0.84842421210605301</v>
+        <v>0.8554705087798289</v>
       </c>
       <c r="E3">
-        <v>0.55727863931965982</v>
+        <v>0.778050778050778</v>
       </c>
       <c r="F3">
-        <v>0.86943471735867939</v>
+        <v>0.95</v>
       </c>
       <c r="G3">
-        <v>0.85992996498249119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -505,22 +495,22 @@
         <v>0.3</v>
       </c>
       <c r="C4">
-        <v>0.94597298649324657</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D4">
-        <v>0.87843921960980487</v>
+        <v>0.943050193050193</v>
       </c>
       <c r="E4">
-        <v>0.59879939969984997</v>
+        <v>0.9113805970149254</v>
       </c>
       <c r="F4">
-        <v>0.86893446723361678</v>
+        <v>0.977</v>
       </c>
       <c r="G4">
-        <v>0.90345172586293143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -528,22 +518,22 @@
         <v>0.4</v>
       </c>
       <c r="C5">
-        <v>0.86943471735867939</v>
+        <v>0.8595</v>
       </c>
       <c r="D5">
-        <v>0.90395197598799404</v>
+        <v>0.8749443702714731</v>
       </c>
       <c r="E5">
-        <v>0.59429714857428717</v>
+        <v>0.7882919005613472</v>
       </c>
       <c r="F5">
-        <v>0.94247123561780888</v>
+        <v>0.983</v>
       </c>
       <c r="G5">
-        <v>0.93846923461730869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -551,22 +541,22 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>0.84542271135567781</v>
+        <v>0.86</v>
       </c>
       <c r="D6">
-        <v>0.90845422711355683</v>
+        <v>0.8754448398576513</v>
       </c>
       <c r="E6">
-        <v>0.60330165082541276</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="F6">
-        <v>0.95547773886943477</v>
+        <v>0.984</v>
       </c>
       <c r="G6">
-        <v>0.97098549274637314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -574,45 +564,45 @@
         <v>0.6</v>
       </c>
       <c r="C7">
-        <v>0.87093546773386699</v>
+        <v>0.8645</v>
       </c>
       <c r="D7">
-        <v>0.89794897448724365</v>
+        <v>0.879179670084708</v>
       </c>
       <c r="E7">
-        <v>0.58129064532266128</v>
+        <v>0.7932421560740145</v>
       </c>
       <c r="F7">
-        <v>0.98299149574787392</v>
+        <v>0.986</v>
       </c>
       <c r="G7">
-        <v>0.94997498749374687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C8">
-        <v>0.82091045522761386</v>
+        <v>0.8255</v>
       </c>
       <c r="D8">
-        <v>0.88444222111055526</v>
+        <v>0.8480626904658251</v>
       </c>
       <c r="E8">
-        <v>0.56778389194597301</v>
+        <v>0.7509637625289128</v>
       </c>
       <c r="F8">
-        <v>0.97148574287143574</v>
+        <v>0.974</v>
       </c>
       <c r="G8">
-        <v>0.95497748874437216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -620,22 +610,22 @@
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>0.79939969984992498</v>
+        <v>0.7895</v>
       </c>
       <c r="D9">
-        <v>0.87843921960980487</v>
+        <v>0.8250934773577067</v>
       </c>
       <c r="E9">
-        <v>0.67983991995997994</v>
+        <v>0.7057569296375267</v>
       </c>
       <c r="F9">
-        <v>0.99299649824912462</v>
+        <v>0.993</v>
       </c>
       <c r="G9">
-        <v>0.99349674837418711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -643,22 +633,22 @@
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>0.81940970485242626</v>
+        <v>0.8195</v>
       </c>
       <c r="D10">
-        <v>0.88494247123561776</v>
+        <v>0.8460554371002131</v>
       </c>
       <c r="E10">
-        <v>0.63781890945472741</v>
+        <v>0.737546468401487</v>
       </c>
       <c r="F10">
-        <v>0.9984992496248124</v>
+        <v>0.992</v>
       </c>
       <c r="G10">
-        <v>0.9954977488744372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -666,19 +656,19 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.79739869934967489</v>
+        <v>0.7915</v>
       </c>
       <c r="D11">
-        <v>0.87043521760880438</v>
+        <v>0.8263223656809664</v>
       </c>
       <c r="E11">
-        <v>0.68884442221110553</v>
+        <v>0.7080656673804425</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="G11">
-        <v>0.9989994997498749</v>
+        <v>0.409</v>
       </c>
     </row>
   </sheetData>
@@ -687,14 +677,1066 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.7785</v>
+      </c>
+      <c r="D2">
+        <v>0.7959465684016581</v>
+      </c>
+      <c r="E2">
+        <v>0.7378309137489325</v>
+      </c>
+      <c r="F2">
+        <v>0.864</v>
+      </c>
+      <c r="G2">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.8485</v>
+      </c>
+      <c r="D3">
+        <v>0.8472012102874432</v>
+      </c>
+      <c r="E3">
+        <v>0.854526958290946</v>
+      </c>
+      <c r="F3">
+        <v>0.84</v>
+      </c>
+      <c r="G3">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>0.8784999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.8825519574673756</v>
+      </c>
+      <c r="E4">
+        <v>0.8540692235734331</v>
+      </c>
+      <c r="F4">
+        <v>0.913</v>
+      </c>
+      <c r="G4">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.904</v>
+      </c>
+      <c r="D5">
+        <v>0.9076923076923077</v>
+      </c>
+      <c r="E5">
+        <v>0.8740740740740741</v>
+      </c>
+      <c r="F5">
+        <v>0.944</v>
+      </c>
+      <c r="G5">
+        <v>0.136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.9085</v>
+      </c>
+      <c r="D6">
+        <v>0.9138012246820537</v>
+      </c>
+      <c r="E6">
+        <v>0.8637577916295637</v>
+      </c>
+      <c r="F6">
+        <v>0.97</v>
+      </c>
+      <c r="G6">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>0.898</v>
+      </c>
+      <c r="D7">
+        <v>0.9044048734770385</v>
+      </c>
+      <c r="E7">
+        <v>0.8509700176366843</v>
+      </c>
+      <c r="F7">
+        <v>0.965</v>
+      </c>
+      <c r="G7">
+        <v>0.169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.8845</v>
+      </c>
+      <c r="D8">
+        <v>0.8917018284106892</v>
+      </c>
+      <c r="E8">
+        <v>0.8393645189761695</v>
+      </c>
+      <c r="F8">
+        <v>0.951</v>
+      </c>
+      <c r="G8">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>0.8784999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.8906882591093117</v>
+      </c>
+      <c r="E9">
+        <v>0.8094848732624693</v>
+      </c>
+      <c r="F9">
+        <v>0.99</v>
+      </c>
+      <c r="G9">
+        <v>0.233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>0.885</v>
+      </c>
+      <c r="D10">
+        <v>0.8957388939256574</v>
+      </c>
+      <c r="E10">
+        <v>0.8192371475953566</v>
+      </c>
+      <c r="F10">
+        <v>0.988</v>
+      </c>
+      <c r="G10">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.8705000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.8849400266548202</v>
+      </c>
+      <c r="E11">
+        <v>0.7961630695443646</v>
+      </c>
+      <c r="F11">
+        <v>0.996</v>
+      </c>
+      <c r="G11">
+        <v>0.255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.5545</v>
+      </c>
+      <c r="D2">
+        <v>0.1965734896302976</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.109</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.5575</v>
+      </c>
+      <c r="D3">
+        <v>0.2062780269058296</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.115</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>0.599</v>
+      </c>
+      <c r="D4">
+        <v>0.330550918196995</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.198</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.5945</v>
+      </c>
+      <c r="D5">
+        <v>0.3179142136248949</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.189</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.6035</v>
+      </c>
+      <c r="D6">
+        <v>0.3429991714995857</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.207</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>0.5815</v>
+      </c>
+      <c r="D7">
+        <v>0.2803095442820293</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.163</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.2394366197183098</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.136</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>0.68</v>
+      </c>
+      <c r="D9">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.36</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>0.638</v>
+      </c>
+      <c r="D10">
+        <v>0.432601880877743</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.276</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.548621190130624</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.378</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.6655</v>
+      </c>
+      <c r="D2">
+        <v>0.4973703981968445</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.331</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.8695000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.8499137435307649</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.739</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>0.869</v>
+      </c>
+      <c r="D4">
+        <v>0.8492520138089759</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.738</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.9425</v>
+      </c>
+      <c r="D5">
+        <v>0.9389920424403183</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.885</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.9555</v>
+      </c>
+      <c r="D6">
+        <v>0.9534275248560963</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.911</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>0.983</v>
+      </c>
+      <c r="D7">
+        <v>0.982706002034588</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.966</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.9715</v>
+      </c>
+      <c r="D8">
+        <v>0.970663921770458</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>0.993</v>
+      </c>
+      <c r="D9">
+        <v>0.9929859719438878</v>
+      </c>
+      <c r="E9">
+        <v>0.9949799196787149</v>
+      </c>
+      <c r="F9">
+        <v>0.991</v>
+      </c>
+      <c r="G9">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>0.9985000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.99849774661993</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.997</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.73</v>
+      </c>
+      <c r="D2">
+        <v>0.6301369863013699</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.46</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.86</v>
+      </c>
+      <c r="D3">
+        <v>0.8372093023255813</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.72</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4">
+        <v>0.9035</v>
+      </c>
+      <c r="D4">
+        <v>0.8931931377974545</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.9385</v>
+      </c>
+      <c r="D5">
+        <v>0.9344698987746404</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.877</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.971</v>
+      </c>
+      <c r="D6">
+        <v>0.9701646090534979</v>
+      </c>
+      <c r="E6">
+        <v>0.9989406779661016</v>
+      </c>
+      <c r="F6">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>0.95</v>
+      </c>
+      <c r="D7">
+        <v>0.9473684210526316</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.9</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.955</v>
+      </c>
+      <c r="D8">
+        <v>0.9528795811518325</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.91</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>0.9935</v>
+      </c>
+      <c r="D9">
+        <v>0.9934902353530296</v>
+      </c>
+      <c r="E9">
+        <v>0.9949849548645938</v>
+      </c>
+      <c r="F9">
+        <v>0.992</v>
+      </c>
+      <c r="G9">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10">
+        <v>0.9955000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.9954796584630838</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.991</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.999</v>
+      </c>
+      <c r="D11">
+        <v>0.998998998998999</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.998</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -702,7 +1744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -710,51 +1752,51 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>45.915323495864868</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52.62751269340515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0.74599313735961914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.8272976875305176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0.21941447257995611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2337374687194824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>195.54219579696661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191.1792721748352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>385.97911143302917</v>
+        <v>388.386449098587</v>
       </c>
     </row>
   </sheetData>
